--- a/src/test/java/com/Resources/datasheet.xlsx
+++ b/src/test/java/com/Resources/datasheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>FirstName</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>INDIA</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
 </sst>
 </file>
@@ -405,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -469,6 +475,20 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
